--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -102,15 +102,9 @@
     <t>Patient Model</t>
   </si>
   <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
     <t>Data model for patient record needs to be created based on standard....</t>
   </si>
   <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -168,19 +162,79 @@
     <t>nosep2</t>
   </si>
   <si>
-    <t>Infopage</t>
-  </si>
-  <si>
-    <t>Mediplan</t>
-  </si>
-  <si>
-    <t>Terminplan</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Create Infopage</t>
+  </si>
+  <si>
+    <t>The User enters all relevant Data about himself and his disease</t>
+  </si>
+  <si>
+    <t>new Appointment</t>
+  </si>
+  <si>
+    <t>The User makes a new Appointment with the doctor</t>
+  </si>
+  <si>
+    <t>Enter a new drug</t>
+  </si>
+  <si>
+    <t>The user can enter the name and dosage he has to take, afterwards he has a overview of all drugs he has to take a day</t>
+  </si>
+  <si>
+    <t>Package Structure</t>
+  </si>
+  <si>
+    <t>Create Packages and structures</t>
+  </si>
+  <si>
+    <t>Infopage GUI</t>
+  </si>
+  <si>
+    <t>Infopage Interface</t>
+  </si>
+  <si>
+    <t>Create the GUI</t>
+  </si>
+  <si>
+    <t>Create Interface class of the Infopage</t>
+  </si>
+  <si>
+    <t>Infopage Logic</t>
+  </si>
+  <si>
+    <t>Create the logic of the infopage</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>Test Infopage</t>
+  </si>
+  <si>
+    <t>Create a test case</t>
+  </si>
+  <si>
+    <t>login gui</t>
+  </si>
+  <si>
+    <t>create the gui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t>implementation with data from txt-File</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -224,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,11 +286,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -254,6 +334,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -575,47 +663,47 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -625,17 +713,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
@@ -657,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -669,113 +757,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <f>SUM(E2:E5)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
+        <f ca="1">SUM(E3:E5)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,17 +874,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -807,7 +896,7 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -827,16 +916,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -845,170 +934,375 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10">
+        <f>SUM(I2:I8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K16">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1.2</v>
       </c>
-      <c r="B3">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H17" t="s">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1.3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H18" t="s">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I18">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J18">
         <v>20</v>
       </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
+      <c r="K18">
+        <f>SUM(J18:J18)</f>
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2.1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J19">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B6">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H20" t="s">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K20">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1034,16 +1328,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7290" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -51,15 +46,6 @@
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -75,36 +61,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -198,9 +154,6 @@
     <t>Create the GUI</t>
   </si>
   <si>
-    <t>Create Interface class of the Infopage</t>
-  </si>
-  <si>
     <t>Infopage Logic</t>
   </si>
   <si>
@@ -219,9 +172,6 @@
     <t>Test Infopage</t>
   </si>
   <si>
-    <t>Create a test case</t>
-  </si>
-  <si>
     <t>login gui</t>
   </si>
   <si>
@@ -231,10 +181,25 @@
     <t xml:space="preserve">login </t>
   </si>
   <si>
-    <t>implementation with data from txt-File</t>
-  </si>
-  <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Create the Interfaces of the Classes</t>
+  </si>
+  <si>
+    <t>implementation with data from txt-File &amp; Testing</t>
+  </si>
+  <si>
+    <t>Create a test case &amp; Testing</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>tschm2/iselr1</t>
   </si>
 </sst>
 </file>
@@ -360,9 +325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,9 +365,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,58 +617,58 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -719,16 +684,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -736,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -745,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -762,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -775,7 +740,7 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -786,10 +751,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -799,7 +764,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -810,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -822,47 +787,47 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <f ca="1">SUM(E3:E5)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -874,26 +839,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -901,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -910,31 +875,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -942,14 +907,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
@@ -958,10 +927,12 @@
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1.2</v>
       </c>
@@ -969,16 +940,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
@@ -987,10 +962,12 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -998,16 +975,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1016,10 +997,12 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.4</v>
       </c>
@@ -1027,16 +1010,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1045,10 +1032,12 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.5</v>
       </c>
@@ -1056,14 +1045,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1072,10 +1067,12 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.6</v>
       </c>
@@ -1083,14 +1080,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1099,10 +1102,12 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1.7</v>
       </c>
@@ -1110,14 +1115,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1126,186 +1137,25 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="H9" s="9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I9" s="10">
         <f>SUM(I2:I8)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.2</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <f>SUM(J18:J18)</f>
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1319,28 +1169,28 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1354,7 +1204,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7296" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -200,12 +201,18 @@
   </si>
   <si>
     <t>tschm2/iselr1</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>nosep2/schmk3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,9 +372,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -805,16 +812,16 @@
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,7 +849,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,7 +921,7 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>28</v>
@@ -926,9 +933,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="M2" s="7"/>
     </row>
@@ -1155,7 +1164,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11240" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,13 +624,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -646,7 +646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -654,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -662,7 +662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -670,7 +670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -691,19 +691,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -809,32 +809,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -848,27 +848,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -932,7 +932,9 @@
       <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -941,7 +943,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1.2</v>
       </c>
@@ -969,14 +971,18 @@
       <c r="I3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -1004,14 +1010,18 @@
       <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
       <c r="L4" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>1.4</v>
       </c>
@@ -1039,14 +1049,18 @@
       <c r="I5" s="7">
         <v>6</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>1.5</v>
       </c>
@@ -1081,7 +1095,7 @@
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>1.6</v>
       </c>
@@ -1116,7 +1130,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>1.7</v>
       </c>
@@ -1151,7 +1165,7 @@
       </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E9" s="7"/>
       <c r="H9" s="9" t="s">
         <v>54</v>
@@ -1161,10 +1175,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1178,14 +1192,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11240" windowHeight="4680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18680" windowHeight="6330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -146,57 +146,27 @@
     <t>Create Packages and structures</t>
   </si>
   <si>
-    <t>Infopage GUI</t>
-  </si>
-  <si>
-    <t>Infopage Interface</t>
-  </si>
-  <si>
     <t>Create the GUI</t>
   </si>
   <si>
     <t>Infopage Logic</t>
   </si>
   <si>
-    <t>Create the logic of the infopage</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>Test Infopage</t>
-  </si>
-  <si>
     <t>login gui</t>
   </si>
   <si>
     <t>create the gui</t>
   </si>
   <si>
-    <t xml:space="preserve">login </t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
-    <t>Create the Interfaces of the Classes</t>
-  </si>
-  <si>
-    <t>implementation with data from txt-File &amp; Testing</t>
-  </si>
-  <si>
-    <t>Create a test case &amp; Testing</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -207,6 +177,39 @@
   </si>
   <si>
     <t>nosep2/schmk3</t>
+  </si>
+  <si>
+    <t>View Navigator Vaadin</t>
+  </si>
+  <si>
+    <t>Create a Navigater to change the views</t>
+  </si>
+  <si>
+    <t>Loginveiw to Navigator</t>
+  </si>
+  <si>
+    <t>Add Loginview to the Navigator</t>
+  </si>
+  <si>
+    <t>Login View</t>
+  </si>
+  <si>
+    <t>Infopage View</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Create Person, Patient, Doctor, Relatives Class</t>
+  </si>
+  <si>
+    <t>Create the Classes</t>
+  </si>
+  <si>
+    <t>Create the logic of the infopage, Write to File and Read from File</t>
+  </si>
+  <si>
+    <t>in Progress</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,7 +924,7 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>28</v>
@@ -939,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M2" s="7"/>
     </row>
@@ -951,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -972,213 +975,276 @@
         <v>6</v>
       </c>
       <c r="J3" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K3" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1.3</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7">
-        <v>8</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5</v>
+      </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>6</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
       <c r="L8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E9" s="7"/>
-      <c r="H9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="10">
-        <f>SUM(I2:I8)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(I2:I9)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" x14ac:dyDescent="0.35"/>
+      <c r="J11">
+        <f>SUM(J2:J9)</f>
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K2:K9)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18680" windowHeight="6330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A2:M9"/>
 </workbook>
 </file>
 
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,13 +627,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -657,7 +657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -665,7 +665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -673,7 +673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -690,23 +690,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -803,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -812,32 +812,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -851,27 +851,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -909,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -946,7 +945,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1.2</v>
       </c>
@@ -985,7 +984,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1063,7 +1062,7 @@
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1.4</v>
       </c>
@@ -1095,14 +1094,14 @@
         <v>4</v>
       </c>
       <c r="K6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1.5</v>
       </c>
@@ -1141,7 +1140,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1.6</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1.7</v>
       </c>
@@ -1217,12 +1216,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
@@ -1236,15 +1235,15 @@
       </c>
       <c r="K11">
         <f>SUM(K2:K9)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,14 +1257,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,13 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <oleSize ref="A2:M9"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -210,12 +214,18 @@
   </si>
   <si>
     <t>in Progress</t>
+  </si>
+  <si>
+    <t>Login Validators</t>
+  </si>
+  <si>
+    <t>Create Validators for Pasword and Username(Temporary Solution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -287,11 +297,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,6 +407,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -335,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,13 +746,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -649,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -657,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -665,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -673,7 +792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -694,19 +813,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -780,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -803,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -812,32 +931,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -849,401 +968,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1.2</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="15">
         <v>6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="15">
+        <v>5</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19">
+        <v>6</v>
+      </c>
+      <c r="J4" s="19">
+        <v>6</v>
+      </c>
+      <c r="K4" s="19">
+        <v>5</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19">
+        <v>3</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="15">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J6" s="15">
+        <v>7</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15">
+        <v>5</v>
+      </c>
+      <c r="J8" s="15">
+        <v>5</v>
+      </c>
+      <c r="K8" s="15">
+        <v>3</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(I2:I10)</f>
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J2:J10)</f>
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K2:K10)</f>
         <v>30</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(I2:I9)</f>
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <f>SUM(J2:J9)</f>
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <f>SUM(K2:K9)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1257,14 +1404,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1292,7 +1439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -220,6 +215,57 @@
   </si>
   <si>
     <t>Create Validators for Pasword and Username(Temporary Solution)</t>
+  </si>
+  <si>
+    <t>Medication View</t>
+  </si>
+  <si>
+    <t>Medication UI Element</t>
+  </si>
+  <si>
+    <t>Medication Loader</t>
+  </si>
+  <si>
+    <t>Medication Saver</t>
+  </si>
+  <si>
+    <t>Medication Element for creating new drugs</t>
+  </si>
+  <si>
+    <t>Loads saved Medications</t>
+  </si>
+  <si>
+    <t>Save the Medications</t>
+  </si>
+  <si>
+    <t>State pattern</t>
+  </si>
+  <si>
+    <t>Recreate the Validator Logic with an TextFile reader</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>tschm2/zyssm4</t>
+  </si>
+  <si>
+    <t>Bug Fixing UserManager</t>
+  </si>
+  <si>
+    <t>Fix SaveInfopage</t>
+  </si>
+  <si>
+    <t>Exception Handling Infopage</t>
+  </si>
+  <si>
+    <t>Handling of the Exception during reading the Data</t>
+  </si>
+  <si>
+    <t>InfoPage</t>
+  </si>
+  <si>
+    <t>higih</t>
   </si>
 </sst>
 </file>
@@ -263,38 +309,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -381,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -403,39 +423,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,9 +493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -494,9 +533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -746,13 +785,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -768,7 +807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -776,7 +815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -784,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -792,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -810,19 +849,19 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -875,18 +914,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>70</v>
@@ -899,18 +938,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -922,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -931,32 +970,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -968,428 +1007,703 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>1.2</v>
       </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>6</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>10</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="I4" s="17">
+        <v>6</v>
+      </c>
+      <c r="J4" s="17">
+        <v>6</v>
+      </c>
+      <c r="K4" s="17">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="17">
+        <v>3</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+      <c r="K5" s="17">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="13">
+        <v>4</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7</v>
+      </c>
+      <c r="K6" s="13">
+        <v>6</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5</v>
+      </c>
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13">
+        <v>5</v>
+      </c>
+      <c r="J8" s="13">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13">
+        <v>4</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B13" s="27">
+        <v>2</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="27">
+        <v>2</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="27">
+        <v>8</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="27">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="27">
+        <v>6</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="27">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="27">
+        <v>2</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="B18" s="27">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="27">
+        <v>2</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="B20" s="30">
+        <v>2</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="19">
-        <v>6</v>
-      </c>
-      <c r="J4" s="19">
-        <v>6</v>
-      </c>
-      <c r="K4" s="19">
-        <v>5</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="19">
-        <v>3</v>
-      </c>
-      <c r="J5" s="19">
-        <v>3</v>
-      </c>
-      <c r="K5" s="19">
-        <v>3</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="15">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="I20" s="30">
         <v>4</v>
       </c>
-      <c r="J6" s="15">
-        <v>7</v>
-      </c>
-      <c r="K6" s="15">
-        <v>6</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="21">
+        <f>SUM(I2:I20)</f>
         <v>53</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="15">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15">
-        <v>5</v>
-      </c>
-      <c r="K7" s="15">
-        <v>5</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="15">
-        <v>5</v>
-      </c>
-      <c r="J8" s="15">
-        <v>5</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
-      <c r="J10" s="21">
-        <v>1</v>
-      </c>
-      <c r="K10" s="21">
-        <v>1</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="10">
-        <f>SUM(I2:I10)</f>
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <f>SUM(J2:J10)</f>
+      <c r="J22">
+        <f>SUM(J2:J20)</f>
         <v>39</v>
       </c>
-      <c r="K13">
-        <f>SUM(K2:K10)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
+      <c r="K22">
+        <f>SUM(K2:K20)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,14 +1718,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1439,7 +1753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -263,9 +268,6 @@
   </si>
   <si>
     <t>InfoPage</t>
-  </si>
-  <si>
-    <t>higih</t>
   </si>
 </sst>
 </file>
@@ -493,9 +495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,9 +535,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,7 +572,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,13 +787,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -799,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -807,7 +809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -815,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -823,7 +825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -831,7 +833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -852,16 +854,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -914,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -938,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -961,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -970,32 +972,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1010,22 +1012,22 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="D5:E5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1103,7 +1105,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1142,7 +1144,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1.3</v>
       </c>
@@ -1298,7 +1300,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1.6</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>1.8</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="13">
         <v>2</v>
@@ -1412,7 +1414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1.9</v>
       </c>
@@ -1426,15 +1428,25 @@
         <v>78</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
+      <c r="K11" s="27">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
@@ -1452,7 +1464,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>1.1200000000000001</v>
       </c>
@@ -1468,19 +1480,27 @@
       <c r="E13" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
       <c r="L13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1494,7 +1514,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
@@ -1526,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1558,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -1590,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
@@ -1610,9 +1630,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="H18" s="27"/>
       <c r="I18" s="27">
         <v>2</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
@@ -1644,7 +1662,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2.6</v>
       </c>
@@ -1674,7 +1692,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1688,21 +1706,21 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="21">
         <f>SUM(I2:I20)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J22">
         <f>SUM(J2:J20)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <f>SUM(K2:K20)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1718,14 +1736,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9996" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -268,6 +263,12 @@
   </si>
   <si>
     <t>InfoPage</t>
+  </si>
+  <si>
+    <t>State Medication</t>
+  </si>
+  <si>
+    <t>Medication</t>
   </si>
 </sst>
 </file>
@@ -495,9 +496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,9 +536,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,13 +788,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -801,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -809,7 +810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -817,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -825,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -833,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -854,16 +855,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -963,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -972,32 +973,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1011,23 +1012,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1.3</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1512,9 +1513,11 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
@@ -1543,10 +1546,10 @@
       <c r="J15" s="17"/>
       <c r="K15" s="27"/>
       <c r="L15" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1570,12 +1573,14 @@
         <v>5</v>
       </c>
       <c r="I16" s="27">
-        <v>6</v>
-      </c>
-      <c r="J16" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="17">
+        <v>17</v>
+      </c>
       <c r="K16" s="27"/>
       <c r="L16" s="15" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1607,10 +1612,10 @@
       <c r="J17" s="17"/>
       <c r="K17" s="27"/>
       <c r="L17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
@@ -1637,10 +1642,10 @@
       <c r="J18" s="17"/>
       <c r="K18" s="27"/>
       <c r="L18" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
@@ -1650,19 +1655,29 @@
       <c r="C19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
+      <c r="D19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="27">
+        <v>25</v>
+      </c>
       <c r="J19" s="17"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L19" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>2.6</v>
       </c>
@@ -1690,9 +1705,11 @@
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1706,17 +1723,17 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="21">
         <f>SUM(I2:I20)</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <f>SUM(J2:J20)</f>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K22">
         <f>SUM(K2:K20)</f>
@@ -1736,14 +1753,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9996" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -496,9 +501,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,9 +541,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,13 +793,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -810,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -818,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -826,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -834,7 +839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -855,16 +860,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -964,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -973,32 +978,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1013,22 +1018,22 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1106,7 +1111,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1145,7 +1150,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1.3</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1517,7 +1522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2.6</v>
       </c>
@@ -1703,13 +1708,17 @@
       <c r="I20" s="30">
         <v>4</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="20">
+        <v>2</v>
+      </c>
       <c r="L20" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1723,7 +1732,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="J22">
         <f>SUM(J2:J20)</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K22">
         <f>SUM(K2:K20)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1753,14 +1762,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -279,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,13 +789,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -807,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -815,7 +811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -823,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -831,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -839,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -860,19 +856,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -922,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -946,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -969,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -978,32 +974,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1017,26 +1013,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1.1000000000000001</v>
       </c>
@@ -1111,7 +1107,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1150,7 +1146,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1.3</v>
       </c>
@@ -1189,7 +1185,7 @@
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>1.4</v>
       </c>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1.4</v>
       </c>
@@ -1267,7 +1263,7 @@
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1.5</v>
       </c>
@@ -1306,7 +1302,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1.6</v>
       </c>
@@ -1344,7 +1340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1.7</v>
       </c>
@@ -1382,7 +1378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1.8</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>1.9</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
@@ -1470,7 +1466,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>1.1200000000000001</v>
       </c>
@@ -1506,7 +1502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1522,7 +1518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
@@ -1549,12 +1545,14 @@
         <v>8</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="27">
+        <v>6</v>
+      </c>
       <c r="L15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>2.6</v>
       </c>
@@ -1718,7 +1716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1732,7 +1730,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1746,7 +1744,7 @@
       </c>
       <c r="K22">
         <f>SUM(K2:K20)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1762,14 +1760,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,8 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -275,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,13 +793,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -803,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -811,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -819,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -827,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -835,7 +839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -856,19 +860,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -894,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -918,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -942,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -965,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -974,32 +978,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1014,25 +1018,25 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1.1000000000000001</v>
       </c>
@@ -1107,7 +1111,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1139,14 +1143,14 @@
         <v>10</v>
       </c>
       <c r="K3" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>63</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1.3</v>
       </c>
@@ -1185,7 +1189,7 @@
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1.4</v>
       </c>
@@ -1224,7 +1228,7 @@
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1.4</v>
       </c>
@@ -1256,14 +1260,14 @@
         <v>7</v>
       </c>
       <c r="K6" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>63</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1.5</v>
       </c>
@@ -1302,7 +1306,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1.6</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1.7</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>1.8</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1.9</v>
       </c>
@@ -1442,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
@@ -1466,7 +1470,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>1.1200000000000001</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1518,7 +1522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -1581,12 +1585,14 @@
       <c r="J16" s="17">
         <v>17</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="27">
+        <v>2</v>
+      </c>
       <c r="L16" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -1613,12 +1619,14 @@
         <v>2</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="27">
+        <v>4</v>
+      </c>
       <c r="L17" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
@@ -1643,12 +1651,14 @@
         <v>2</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="27">
+        <v>4</v>
+      </c>
       <c r="L18" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
@@ -1680,7 +1690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2.6</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1730,7 +1740,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1754,7 @@
       </c>
       <c r="K22">
         <f>SUM(K2:K20)</f>
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1760,14 +1770,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\workspace\ch.bfh.btx8081.w2015.red\doc\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="2985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,11 +13,12 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:Z15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +270,15 @@
   </si>
   <si>
     <t>Medication</t>
+  </si>
+  <si>
+    <t>Präsentation State Pattern</t>
+  </si>
+  <si>
+    <t>Nosep2/tschm2</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -470,7 +475,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -483,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1015,11 +1020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1406,7 @@
       <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -1421,31 +1426,31 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>1.9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
-      <c r="J11" s="27">
-        <v>1</v>
-      </c>
-      <c r="K11" s="27">
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1</v>
+      </c>
+      <c r="K11" s="26">
         <v>2</v>
       </c>
       <c r="L11" s="15" t="s">
@@ -1456,11 +1461,11 @@
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>2</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1471,36 +1476,36 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="27">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27">
-        <v>1</v>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>51</v>
@@ -1518,39 +1523,39 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2.1</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>8</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="27">
-        <v>6</v>
+      <c r="J15" s="26">
+        <v>12</v>
+      </c>
+      <c r="K15" s="26">
+        <v>12</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>63</v>
@@ -1560,201 +1565,239 @@
       <c r="A16" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>26</v>
       </c>
       <c r="J16" s="17">
-        <v>17</v>
-      </c>
-      <c r="K16" s="27">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="K16" s="26">
+        <v>20</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>2</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="27">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="27">
-        <v>4</v>
+      <c r="I17" s="26">
+        <v>5</v>
+      </c>
+      <c r="J17" s="26">
+        <v>7</v>
+      </c>
+      <c r="K17" s="26">
+        <v>6</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2.4</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>2</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="27">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26">
         <v>4</v>
+      </c>
+      <c r="J18" s="30">
+        <v>6</v>
+      </c>
+      <c r="K18" s="26">
+        <v>6</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2.5</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>2</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>25</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="27"/>
+      <c r="J19" s="26">
+        <v>20</v>
+      </c>
+      <c r="K19" s="26">
+        <v>17</v>
+      </c>
       <c r="L19" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="20" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>2.6</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="26">
+        <v>3</v>
+      </c>
+      <c r="J20" s="30">
+        <v>3</v>
+      </c>
+      <c r="K20" s="26">
+        <v>3</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="B21" s="29">
         <v>2</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I21" s="29">
         <v>4</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J21" s="20">
         <v>3</v>
       </c>
-      <c r="K20" s="20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="K21" s="20">
+        <v>3</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="18" t="s">
+    <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="21">
-        <f>SUM(I2:I20)</f>
-        <v>100</v>
-      </c>
-      <c r="J22">
-        <f>SUM(J2:J20)</f>
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <f>SUM(K2:K20)</f>
-        <v>58</v>
+      <c r="I23" s="21">
+        <f>SUM(I2:I21)</f>
+        <v>108</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J2:J21)</f>
+        <v>116</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K2:K21)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/doc/Task10/scrum_v01.xlsx
+++ b/doc/Task10/scrum_v01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="2985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="2988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1:Z15"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -279,13 +278,109 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Random GIF Button</t>
+  </si>
+  <si>
+    <t>Implementation of a Random GIF Button</t>
+  </si>
+  <si>
+    <t>GUI Polish</t>
+  </si>
+  <si>
+    <t>Fix Visual Bugs and polish everything</t>
+  </si>
+  <si>
+    <t>Delete Medicament</t>
+  </si>
+  <si>
+    <t>Infopage Gui Fix</t>
+  </si>
+  <si>
+    <t>Add Labels &amp; Buttons</t>
+  </si>
+  <si>
+    <t>Delete Medication also in the File</t>
+  </si>
+  <si>
+    <t>Infopage</t>
+  </si>
+  <si>
+    <t>HomeView GUI Fix</t>
+  </si>
+  <si>
+    <t>Change Buttons and Layout</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>MediList GUI Fix</t>
+  </si>
+  <si>
+    <t>Change GUI druing Input &amp; Delete</t>
+  </si>
+  <si>
+    <t>Input Validator MediList Date</t>
+  </si>
+  <si>
+    <t>Validate  start and end Date</t>
+  </si>
+  <si>
+    <t>Input Validator MediList Amount</t>
+  </si>
+  <si>
+    <t>Input Validator MediList NotNullValues</t>
+  </si>
+  <si>
+    <t>MediList DateField extend with Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate TextField Amount </t>
+  </si>
+  <si>
+    <t>Validate TextFields for NULL Values</t>
+  </si>
+  <si>
+    <t>Add Time selection in the DateFields</t>
+  </si>
+  <si>
+    <t>Infopage Validation TextFields NotNullValues</t>
+  </si>
+  <si>
+    <t>Infopage Add Labels Phonenumber &amp; Name</t>
+  </si>
+  <si>
+    <t>DailyList Validation of the States</t>
+  </si>
+  <si>
+    <t>Validate the State of each Medicament</t>
+  </si>
+  <si>
+    <t>DailyList GUI Fix</t>
+  </si>
+  <si>
+    <t>Implement the different sections for the Medicaments &amp; remove Buttons &amp; Layout Fix</t>
+  </si>
+  <si>
+    <t>Validate Medicament for Duplications</t>
+  </si>
+  <si>
+    <t>Validate the Medicaments that they cant be inserted twice</t>
+  </si>
+  <si>
+    <t>Validate GIF`s</t>
+  </si>
+  <si>
+    <t>Validate that it cant be the same GIF twice back to back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +396,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +424,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -410,11 +518,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -454,17 +634,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -474,7 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -487,9 +661,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,9 +710,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -546,9 +750,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,13 +1002,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -812,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -820,7 +1024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -828,7 +1032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -836,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -844,7 +1048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -865,16 +1069,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -974,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -983,32 +1187,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
@@ -1020,28 +1224,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1079,44 +1283,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="18">
         <v>1</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="13">
         <v>1</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="26" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1150,16 +1354,16 @@
       <c r="K3" s="13">
         <v>8</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>63</v>
+      <c r="L3" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>1.3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1168,37 +1372,37 @@
       <c r="D4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>6</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="13">
         <v>5</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>63</v>
+      <c r="L4" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>1.4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1207,33 +1411,33 @@
       <c r="D5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="17">
-        <v>3</v>
-      </c>
-      <c r="J5" s="17">
-        <v>3</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="I5" s="13">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+      <c r="K5" s="13">
         <v>4</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1.4</v>
       </c>
@@ -1267,12 +1471,12 @@
       <c r="K6" s="13">
         <v>7</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>63</v>
+      <c r="L6" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1.5</v>
       </c>
@@ -1306,12 +1510,12 @@
       <c r="K7" s="13">
         <v>5</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>63</v>
+      <c r="L7" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1.6</v>
       </c>
@@ -1345,11 +1549,12 @@
       <c r="K8" s="13">
         <v>4</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1.7</v>
       </c>
@@ -1383,11 +1588,12 @@
       <c r="K9" s="13">
         <v>1</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1.8</v>
       </c>
@@ -1406,7 +1612,7 @@
       <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -1421,384 +1627,946 @@
       <c r="K10" s="13">
         <v>2</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>1.9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>2</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="26">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="25">
         <v>1</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>1</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>2</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="C12" s="13"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="26" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="20">
         <v>1</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="20">
         <v>2</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="20">
         <v>2</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>2.1</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="20">
         <v>8</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="20">
         <v>12</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="20">
         <v>12</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="L15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="20">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="20">
         <v>26</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>22</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="20">
         <v>20</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="L16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="20">
         <v>2</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="20">
         <v>5</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="20">
         <v>7</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="20">
         <v>6</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="L17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>2.4</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20">
         <v>4</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="20">
         <v>6</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="20">
         <v>6</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="L18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>2.5</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="20">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="20">
         <v>25</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="20">
         <v>20</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="20">
         <v>17</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>2.6</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="26">
-        <v>3</v>
-      </c>
-      <c r="J20" s="30">
-        <v>3</v>
-      </c>
-      <c r="K20" s="26">
-        <v>3</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="I20" s="20">
+        <v>3</v>
+      </c>
+      <c r="J20" s="20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>2.7</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="23">
         <v>2</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="23">
         <v>4</v>
       </c>
-      <c r="J21" s="20">
-        <v>3</v>
-      </c>
-      <c r="K21" s="20">
-        <v>3</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="18" t="s">
+      <c r="J21" s="16">
+        <v>3</v>
+      </c>
+      <c r="K21" s="16">
+        <v>3</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="B22" s="20">
+        <v>3</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="13">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>2.9</v>
+      </c>
+      <c r="B23" s="20">
+        <v>3</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" ref="I23:I37" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="B24" s="20">
+        <v>3</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>2.12</v>
+      </c>
+      <c r="B25" s="20">
+        <v>3</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>2.13</v>
+      </c>
+      <c r="B26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="B27" s="20">
+        <v>3</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>2.15</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>2.16</v>
+      </c>
+      <c r="B29" s="20">
+        <v>3</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="B30" s="20">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B31" s="20">
+        <v>3</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>2.19</v>
+      </c>
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>2.21</v>
+      </c>
+      <c r="B33" s="20">
+        <v>3</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B34" s="20">
+        <v>3</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="B35" s="20">
+        <v>3</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="B36" s="20">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="B37" s="23">
+        <v>3</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="21">
-        <f>SUM(I2:I21)</f>
+      <c r="I38" s="31">
+        <f ca="1">SUM(I2:I37)</f>
+        <v>158</v>
+      </c>
+      <c r="J38" s="31">
+        <f ca="1">SUM(J2:J38)</f>
+        <v>116</v>
+      </c>
+      <c r="K38" s="33">
+        <f ca="1">SUM(K2:K38)</f>
         <v>108</v>
       </c>
-      <c r="J23">
-        <f>SUM(J2:J21)</f>
-        <v>116</v>
-      </c>
-      <c r="K23">
-        <f>SUM(K2:K21)</f>
-        <v>108</v>
-      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1813,14 +2581,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +2602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1848,7 +2616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
